--- a/sup_df_qu.xlsx
+++ b/sup_df_qu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>FS</t>
   </si>
@@ -28,12 +28,12 @@
     <t>AVG_FS</t>
   </si>
   <si>
+    <t>SsaSpartan</t>
+  </si>
+  <si>
     <t>Yp</t>
   </si>
   <si>
-    <t>SsaSpartan</t>
-  </si>
-  <si>
     <t>Fng</t>
   </si>
   <si>
@@ -43,39 +43,39 @@
     <t>Miposhka</t>
   </si>
   <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>Duster</t>
+  </si>
+  <si>
+    <t>ninjaboogie</t>
+  </si>
+  <si>
+    <t>KANG</t>
+  </si>
+  <si>
+    <t>Fenrir</t>
+  </si>
+  <si>
+    <t>Mushi-</t>
+  </si>
+  <si>
+    <t>pieliedie</t>
+  </si>
+  <si>
+    <t>Peksu</t>
+  </si>
+  <si>
+    <t>JAbz</t>
+  </si>
+  <si>
     <t>Era</t>
   </si>
   <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>Duster</t>
-  </si>
-  <si>
-    <t>ninjaboogie</t>
-  </si>
-  <si>
-    <t>KANG</t>
-  </si>
-  <si>
-    <t>Fenrir</t>
-  </si>
-  <si>
-    <t>Mushi-</t>
-  </si>
-  <si>
-    <t>pieliedie</t>
-  </si>
-  <si>
-    <t>JAbz</t>
-  </si>
-  <si>
     <t>Abeng-</t>
   </si>
   <si>
-    <t>Peksu</t>
-  </si>
-  <si>
     <t>Khezcute</t>
   </si>
   <si>
@@ -88,15 +88,15 @@
     <t>Kitrak</t>
   </si>
   <si>
+    <t>xNova</t>
+  </si>
+  <si>
+    <t>Lelis</t>
+  </si>
+  <si>
     <t>SoNNeikO</t>
   </si>
   <si>
-    <t>xNova</t>
-  </si>
-  <si>
-    <t>Lelis</t>
-  </si>
-  <si>
     <t>YamateH</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>rZs</t>
   </si>
   <si>
+    <t>Peterpandam</t>
+  </si>
+  <si>
     <t>Save</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>`JL</t>
   </si>
   <si>
+    <t>AWF</t>
+  </si>
+  <si>
     <t>FLYSOLo</t>
   </si>
   <si>
@@ -133,75 +139,69 @@
     <t>Slayer</t>
   </si>
   <si>
+    <t>Misha</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>KimO</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>y`</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>SPACEMAN</t>
+  </si>
+  <si>
+    <t>ling</t>
+  </si>
+  <si>
+    <t>CTOMAHEH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu </t>
+  </si>
+  <si>
+    <t>ComeWithMe</t>
+  </si>
+  <si>
+    <t>iNSaNia</t>
+  </si>
+  <si>
+    <t>Prada</t>
+  </si>
+  <si>
     <t>raizen</t>
   </si>
   <si>
-    <t>Peterpandam</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>KimO</t>
-  </si>
-  <si>
-    <t>j4</t>
-  </si>
-  <si>
-    <t>y`</t>
-  </si>
-  <si>
-    <t>SVG</t>
+    <t>Accel丶Koala</t>
+  </si>
+  <si>
+    <t>Jaunuel</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Fly</t>
   </si>
   <si>
     <t>BLACKARXANGEL</t>
   </si>
   <si>
-    <t>SPACEMAN</t>
-  </si>
-  <si>
-    <t>ling</t>
-  </si>
-  <si>
-    <t>CTOMAHEH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wu </t>
-  </si>
-  <si>
-    <t>ComeWithMe</t>
-  </si>
-  <si>
-    <t>Prada</t>
-  </si>
-  <si>
-    <t>iNSaNia</t>
-  </si>
-  <si>
-    <t>AWF</t>
-  </si>
-  <si>
-    <t>Misha</t>
-  </si>
-  <si>
-    <t>Accel丶Koala</t>
-  </si>
-  <si>
-    <t>Jaunuel</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
     <t>N0tail</t>
   </si>
   <si>
-    <t>Faith</t>
-  </si>
-  <si>
-    <t>Fly</t>
-  </si>
-  <si>
     <t>XCJ</t>
   </si>
   <si>
@@ -256,147 +256,150 @@
     <t>BrayaNt</t>
   </si>
   <si>
+    <t>misery</t>
+  </si>
+  <si>
+    <t>sehny</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>eyyou</t>
+  </si>
+  <si>
+    <t>el lisash</t>
+  </si>
+  <si>
+    <t>LeBronDota</t>
+  </si>
+  <si>
+    <t>KuroKy</t>
+  </si>
+  <si>
+    <t>Tims</t>
+  </si>
+  <si>
+    <t>Wij</t>
+  </si>
+  <si>
+    <t>MoOz</t>
+  </si>
+  <si>
+    <t>Vlaicuu</t>
+  </si>
+  <si>
+    <t>Czy</t>
+  </si>
+  <si>
+    <t>Xepher</t>
+  </si>
+  <si>
+    <t>EternaLEnVy</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Fishman</t>
+  </si>
+  <si>
+    <t>Sneyking</t>
+  </si>
+  <si>
+    <t>Bamboe</t>
+  </si>
+  <si>
+    <t>M。</t>
+  </si>
+  <si>
     <t>444</t>
   </si>
   <si>
-    <t>Solo</t>
-  </si>
-  <si>
-    <t>sehny</t>
-  </si>
-  <si>
-    <t>Xi</t>
-  </si>
-  <si>
-    <t>Mantis</t>
-  </si>
-  <si>
-    <t>eyyou</t>
-  </si>
-  <si>
-    <t>KuroKy</t>
-  </si>
-  <si>
-    <t>misery</t>
-  </si>
-  <si>
-    <t>el lisash</t>
-  </si>
-  <si>
-    <t>LeBronDota</t>
-  </si>
-  <si>
-    <t>Tims</t>
-  </si>
-  <si>
-    <t>MoOz</t>
-  </si>
-  <si>
-    <t>Wij</t>
-  </si>
-  <si>
-    <t>Vlaicuu</t>
-  </si>
-  <si>
-    <t>Czy</t>
+    <t>LaNm</t>
+  </si>
+  <si>
+    <t>dnz</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>yoona</t>
   </si>
   <si>
     <t>kingr-</t>
   </si>
   <si>
-    <t>Xepher</t>
-  </si>
-  <si>
-    <t>EternaLEnVy</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Fishman</t>
-  </si>
-  <si>
-    <t>Sneyking</t>
-  </si>
-  <si>
-    <t>Bamboe</t>
-  </si>
-  <si>
-    <t>M。</t>
-  </si>
-  <si>
-    <t>LaNm</t>
-  </si>
-  <si>
-    <t>dnz</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>yoona</t>
+    <t>i dON'T kNow</t>
+  </si>
+  <si>
+    <t>Vipu</t>
+  </si>
+  <si>
+    <t>Luft</t>
   </si>
   <si>
     <t>RodjER</t>
   </si>
   <si>
-    <t>i dON'T kNow</t>
-  </si>
-  <si>
-    <t>Vipu</t>
-  </si>
-  <si>
-    <t>Luft</t>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>MiLAN</t>
+  </si>
+  <si>
+    <t>Huppey</t>
+  </si>
+  <si>
+    <t>kaka</t>
+  </si>
+  <si>
+    <t>YapzOr</t>
+  </si>
+  <si>
+    <t>pamplona</t>
+  </si>
+  <si>
+    <t>Matthew~</t>
+  </si>
+  <si>
+    <t>黑凤梨丶</t>
+  </si>
+  <si>
+    <t>Eixn</t>
+  </si>
+  <si>
+    <t>XinQ</t>
+  </si>
+  <si>
+    <t>Jhocam</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>ragingpotato</t>
   </si>
   <si>
     <t>Mr. Kingão</t>
   </si>
   <si>
-    <t>PABLO</t>
-  </si>
-  <si>
-    <t>MiLAN</t>
-  </si>
-  <si>
-    <t>Huppey</t>
-  </si>
-  <si>
-    <t>YapzOr</t>
-  </si>
-  <si>
-    <t>kaka</t>
-  </si>
-  <si>
-    <t>pamplona</t>
-  </si>
-  <si>
-    <t>黑凤梨丶</t>
-  </si>
-  <si>
-    <t>Matthew~</t>
-  </si>
-  <si>
-    <t>Eixn</t>
+    <t>Saksa</t>
+  </si>
+  <si>
+    <t>- ah fu -</t>
   </si>
   <si>
     <t>JerAx</t>
   </si>
   <si>
-    <t>XinQ</t>
-  </si>
-  <si>
-    <t>Jhocam</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>ragingpotato</t>
-  </si>
-  <si>
-    <t>- ah fu -</t>
-  </si>
-  <si>
     <t>Fade</t>
   </si>
   <si>
@@ -406,9 +409,6 @@
     <t>Rico</t>
   </si>
   <si>
-    <t>Saksa</t>
-  </si>
-  <si>
     <t>rmN-</t>
   </si>
   <si>
@@ -427,54 +427,54 @@
     <t>yaha</t>
   </si>
   <si>
+    <t>天命</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>venom</t>
+  </si>
+  <si>
+    <t>Zfreek</t>
+  </si>
+  <si>
     <t>Velheor</t>
   </si>
   <si>
-    <t>天命</t>
-  </si>
-  <si>
-    <t>fy</t>
-  </si>
-  <si>
-    <t>venom</t>
-  </si>
-  <si>
-    <t>Zfreek</t>
-  </si>
-  <si>
     <t>FLee</t>
   </si>
   <si>
+    <t>Thiolicor</t>
+  </si>
+  <si>
     <t>Febby♥金佳暎</t>
   </si>
   <si>
     <t>Maybe Next Time</t>
   </si>
   <si>
+    <t>Gh</t>
+  </si>
+  <si>
     <t>Jerry</t>
   </si>
   <si>
-    <t>Thiolicor</t>
-  </si>
-  <si>
     <t>Lil</t>
   </si>
   <si>
-    <t>Gh</t>
-  </si>
-  <si>
     <t>Alren</t>
   </si>
   <si>
+    <t>W_Zayac</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
     <t>Taiga</t>
   </si>
   <si>
-    <t>W_Zayac</t>
-  </si>
-  <si>
-    <t>Fear</t>
-  </si>
-  <si>
     <t>Boom</t>
   </si>
   <si>
@@ -487,42 +487,42 @@
     <t>Newsham</t>
   </si>
   <si>
+    <t>dunha1</t>
+  </si>
+  <si>
+    <t>Cat you</t>
+  </si>
+  <si>
+    <t>Yasy</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Cr1t-</t>
+  </si>
+  <si>
     <t>Chu</t>
   </si>
   <si>
-    <t>dunha1</t>
-  </si>
-  <si>
-    <t>Cat you</t>
-  </si>
-  <si>
-    <t>Yasy</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Cr1t-</t>
+    <t>felixciaoba</t>
+  </si>
+  <si>
+    <t>MSS-</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Sayuw</t>
+  </si>
+  <si>
+    <t>Net</t>
   </si>
   <si>
     <t>Handsken</t>
   </si>
   <si>
-    <t>felixciaoba</t>
-  </si>
-  <si>
-    <t>MSS-</t>
-  </si>
-  <si>
-    <t>Raven</t>
-  </si>
-  <si>
-    <t>Sayuw</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
     <t>Bloody Nine</t>
   </si>
   <si>
@@ -532,15 +532,18 @@
     <t>Muf</t>
   </si>
   <si>
+    <t>slad1n-</t>
+  </si>
+  <si>
     <t>ky xY`</t>
   </si>
   <si>
+    <t>Scofield</t>
+  </si>
+  <si>
     <t>Eve</t>
   </si>
   <si>
-    <t>slad1n-</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -550,28 +553,28 @@
     <t>yamich</t>
   </si>
   <si>
-    <t>Scofield</t>
-  </si>
-  <si>
     <t>Panthera</t>
   </si>
   <si>
-    <t>Michael-</t>
+    <t>Nofear</t>
+  </si>
+  <si>
+    <t>@dogf1ghts</t>
   </si>
   <si>
     <t>lol?</t>
   </si>
   <si>
-    <t>@dogf1ghts</t>
-  </si>
-  <si>
     <t>Rr</t>
   </si>
   <si>
+    <t>Qupe</t>
+  </si>
+  <si>
     <t>teckla8</t>
   </si>
   <si>
-    <t>Qupe</t>
+    <t>Immersion</t>
   </si>
   <si>
     <t>Steel-_-Borco</t>
@@ -581,12 +584,6 @@
   </si>
   <si>
     <t>xiao8</t>
-  </si>
-  <si>
-    <t>Immersion</t>
-  </si>
-  <si>
-    <t>Nofear</t>
   </si>
   <si>
     <t>hyko</t>
@@ -1001,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,16 +1023,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>85.82436454751132</v>
+        <v>234.7345825995071</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>28.60812151583711</v>
+        <v>29.34182282493839</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1043,16 +1040,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>354.947179539283</v>
+        <v>85.82436454751132</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>27.30362919532946</v>
+        <v>28.60812151583711</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1060,16 +1057,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1538.74142529539</v>
+        <v>1232.914524485317</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>26.53002457405846</v>
+        <v>26.80248966272428</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1111,16 +1108,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1485.104236382737</v>
+        <v>1322.371519132509</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>24.34597108824159</v>
+        <v>24.04311852968199</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1128,16 +1125,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1322.371519132509</v>
+        <v>694.2709646909916</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>24.04311852968199</v>
+        <v>23.94037809279281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1145,16 +1142,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>694.2709646909916</v>
+        <v>1308.425012844245</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>23.94037809279281</v>
+        <v>23.78954568807719</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1162,16 +1159,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1308.425012844245</v>
+        <v>402.9902276416607</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>23.78954568807719</v>
+        <v>23.70530750833298</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1179,16 +1176,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>402.9902276416607</v>
+        <v>1085.629940097335</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>23.70530750833298</v>
+        <v>23.60065087168119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1196,16 +1193,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>1085.629940097335</v>
+        <v>212.0766043401806</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>23.60065087168119</v>
+        <v>23.56406714890896</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1213,16 +1210,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>212.0766043401806</v>
+        <v>748.6878182942045</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>23.56406714890896</v>
+        <v>23.39649432169389</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1230,16 +1227,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>748.6878182942045</v>
+        <v>1676.510724780495</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E14">
-        <v>23.39649432169389</v>
+        <v>23.28487117750687</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1264,16 +1261,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>46.2148551</v>
+        <v>1229.709872028346</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>23.10742755</v>
+        <v>23.20207305713861</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1281,16 +1278,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1776.372629250192</v>
+        <v>46.2148551</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>23.06977440584664</v>
+        <v>23.10742755</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1366,16 +1363,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>1375.435783323544</v>
+        <v>1078.611512737409</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>22.54812759546794</v>
+        <v>22.47107318202935</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1383,16 +1380,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1078.611512737409</v>
+        <v>425.0636344319678</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>22.47107318202935</v>
+        <v>22.37177023326146</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1400,16 +1397,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>425.0636344319678</v>
+        <v>1138.467874877857</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E24">
-        <v>22.37177023326146</v>
+        <v>22.32289950740897</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1485,16 +1482,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>108.0826076922078</v>
+        <v>1020.086941864436</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>21.61652153844156</v>
+        <v>21.70397748647736</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1502,16 +1499,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>21.615434</v>
+        <v>108.0826076922078</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>21.615434</v>
+        <v>21.61652153844156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1519,16 +1516,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>773.4894844273898</v>
+        <v>21.615434</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>21.48581901187194</v>
+        <v>21.615434</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1536,16 +1533,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>1540.248503477961</v>
+        <v>773.4894844273898</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>21.39234032608279</v>
+        <v>21.48581901187194</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1553,16 +1550,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>274.7829155517269</v>
+        <v>1331.648483786865</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>21.13714735013284</v>
+        <v>21.47820135140105</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1570,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>354.1149317330641</v>
+        <v>274.7829155517269</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>20.83029010194495</v>
+        <v>21.13714735013284</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1587,16 +1584,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>123.8200546372304</v>
+        <v>458.8405201675357</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E35">
-        <v>20.63667577287174</v>
+        <v>20.85638728034253</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1604,16 +1601,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>763.3296660014362</v>
+        <v>354.1149317330641</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>20.63053151355233</v>
+        <v>20.83029010194495</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1621,16 +1618,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>761.8508807682044</v>
+        <v>123.8200546372304</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>20.59056434508661</v>
+        <v>20.63667577287174</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1638,16 +1635,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1170.993125349766</v>
+        <v>763.3296660014362</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E38">
-        <v>20.54373904122396</v>
+        <v>20.63053151355233</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1655,16 +1652,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>977.6445115500367</v>
+        <v>740.5514720910612</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>20.36759399062576</v>
+        <v>20.5708742247517</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1672,16 +1669,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>223.3851584648644</v>
+        <v>977.6445115500367</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>20.30774167862404</v>
+        <v>20.36759399062576</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1689,16 +1686,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>345.1657289111232</v>
+        <v>223.3851584648644</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
         <v>11</v>
       </c>
-      <c r="D41">
-        <v>17</v>
-      </c>
       <c r="E41">
-        <v>20.30386640653666</v>
+        <v>20.30774167862404</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1706,16 +1703,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>1136.147515998097</v>
+        <v>345.1657289111232</v>
       </c>
       <c r="C42">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>20.28834849996602</v>
+        <v>20.30386640653666</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1723,16 +1720,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>727.2369838202719</v>
+        <v>1136.147515998097</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E43">
-        <v>20.20102732834088</v>
+        <v>20.28834849996602</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1740,16 +1737,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>801.5229266065425</v>
+        <v>727.2369838202719</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>20.03807316516356</v>
+        <v>20.20102732834088</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1842,16 +1839,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>1419.343712823717</v>
+        <v>1005.682728060609</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>19.71310712255163</v>
+        <v>19.719269177659</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1859,16 +1856,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>1142.754570877391</v>
+        <v>1259.680755589148</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D51">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E51">
-        <v>19.70266501512742</v>
+        <v>19.68251180608044</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1876,16 +1873,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>511.9529126380485</v>
+        <v>605.9312282543342</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E52">
-        <v>19.69049663992494</v>
+        <v>19.54616865336562</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1893,16 +1890,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>802.4642809414599</v>
+        <v>986.5731070755634</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E53">
-        <v>19.57229953515756</v>
+        <v>19.34457072697183</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1910,16 +1907,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>1161.507146609866</v>
+        <v>251.0800310033295</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E54">
-        <v>19.35845244349777</v>
+        <v>19.31384853871766</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1927,16 +1924,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>251.0800310033295</v>
+        <v>405.1203451071229</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E55">
-        <v>19.31384853871766</v>
+        <v>19.29144500510109</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1944,16 +1941,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>405.1203451071229</v>
+        <v>470.6842405698481</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E56">
-        <v>19.29144500510109</v>
+        <v>18.82736962279392</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1961,16 +1958,16 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>963.5301155732852</v>
+        <v>715.0328089602026</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E57">
-        <v>19.27060231146571</v>
+        <v>18.81665286737375</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1978,16 +1975,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>470.6842405698481</v>
+        <v>563.0599967620014</v>
       </c>
       <c r="C58">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E58">
-        <v>18.82736962279392</v>
+        <v>18.76866655873338</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1995,16 +1992,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>715.0328089602026</v>
+        <v>755.2238143987588</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E59">
-        <v>18.81665286737375</v>
+        <v>18.42009303411607</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2301,16 +2298,16 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>590.6169013942457</v>
+        <v>490.0018187868811</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E77">
-        <v>16.40602503872905</v>
+        <v>16.33339395956271</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2335,16 +2332,16 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>232.2103475506023</v>
+        <v>501.4150224874952</v>
       </c>
       <c r="C79">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E79">
-        <v>15.48068983670682</v>
+        <v>15.66921945273422</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2352,16 +2349,16 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>646.952324925159</v>
+        <v>184.6354602504614</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>15.40362678393236</v>
+        <v>15.38628835420512</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2369,16 +2366,16 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>184.6354602504614</v>
+        <v>535.0593637833559</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E81">
-        <v>15.38628835420512</v>
+        <v>15.28741039381017</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2437,16 +2434,16 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>662.0706820773407</v>
+        <v>29.99525985714286</v>
       </c>
       <c r="C85">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>15.0470609563032</v>
+        <v>14.99762992857143</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2454,16 +2451,16 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>570.3875751455768</v>
+        <v>88.2687878869546</v>
       </c>
       <c r="C86">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>15.01019934593623</v>
+        <v>14.71146464782577</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2471,16 +2468,16 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>29.99525985714286</v>
+        <v>525.776794449632</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E87">
-        <v>14.99762992857143</v>
+        <v>14.60491095693422</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2488,16 +2485,16 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>88.2687878869546</v>
+        <v>807.8669830988297</v>
       </c>
       <c r="C88">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E88">
-        <v>14.71146464782577</v>
+        <v>14.42619612676482</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2505,16 +2502,16 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>807.8669830988297</v>
+        <v>28.753</v>
       </c>
       <c r="C89">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>14.42619612676482</v>
+        <v>14.3765</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2522,16 +2519,16 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>1023.096800067304</v>
+        <v>874.1806299505268</v>
       </c>
       <c r="C90">
         <v>70</v>
       </c>
       <c r="D90">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E90">
-        <v>14.40981408545499</v>
+        <v>14.33082999918896</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2539,16 +2536,16 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>28.753</v>
+        <v>57.20623197330229</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91">
-        <v>14.3765</v>
+        <v>14.30155799332557</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2556,7 +2553,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>57.20623197330229</v>
+        <v>57.09891609663866</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -2565,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="E92">
-        <v>14.30155799332557</v>
+        <v>14.27472902415967</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2573,16 +2570,16 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>57.09891609663866</v>
+        <v>460.7710252686852</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E93">
-        <v>14.27472902415967</v>
+        <v>13.96275834147531</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2590,16 +2587,16 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>689.4201031496026</v>
+        <v>468.5814965345447</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E94">
-        <v>14.06979802346128</v>
+        <v>13.38804275812985</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2607,16 +2604,16 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>460.7710252686852</v>
+        <v>359.9192176146174</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D95">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>13.96275834147531</v>
+        <v>13.33034139313398</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2624,16 +2621,16 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>468.5814965345447</v>
+        <v>53.22007563883459</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>13.38804275812985</v>
+        <v>13.30501890970865</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2641,16 +2638,16 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>359.9192176146174</v>
+        <v>469.1274311018918</v>
       </c>
       <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="D97">
         <v>36</v>
       </c>
-      <c r="D97">
-        <v>27</v>
-      </c>
       <c r="E97">
-        <v>13.33034139313398</v>
+        <v>13.0313175306081</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2658,16 +2655,16 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>53.22007563883459</v>
+        <v>64.32879675037222</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>13.30501890970865</v>
+        <v>12.86575935007444</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2675,16 +2672,16 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>469.1274311018918</v>
+        <v>25.662642</v>
       </c>
       <c r="C99">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>13.0313175306081</v>
+        <v>12.831321</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2692,16 +2689,16 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>64.32879675037222</v>
+        <v>101.8264428120058</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>12.86575935007444</v>
+        <v>12.72830535150072</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2709,16 +2706,16 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>25.662642</v>
+        <v>239.0359519595232</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E101">
-        <v>12.831321</v>
+        <v>12.58083957681701</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2726,16 +2723,16 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>239.0359519595232</v>
+        <v>73.86440375935143</v>
       </c>
       <c r="C102">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D102">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>12.58083957681701</v>
+        <v>12.31073395989191</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2743,16 +2740,16 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>73.86440375935143</v>
+        <v>24.35884335714286</v>
       </c>
       <c r="C103">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>12.31073395989191</v>
+        <v>12.17942167857143</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2760,16 +2757,16 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>24.35884335714286</v>
+        <v>36.49684499773755</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>12.17942167857143</v>
+        <v>12.16561499924585</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2777,16 +2774,16 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>36.49684499773755</v>
+        <v>471.4013493649145</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E105">
-        <v>12.16561499924585</v>
+        <v>12.08721408627986</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2794,16 +2791,16 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>386.0061459920771</v>
+        <v>72.28025122459788</v>
       </c>
       <c r="C106">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E106">
-        <v>12.06269206225241</v>
+        <v>12.04670853743298</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2811,16 +2808,16 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>72.28025122459788</v>
+        <v>60.15898012207791</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107">
-        <v>12.04670853743298</v>
+        <v>12.03179602441558</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2828,16 +2825,16 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>60.15898012207791</v>
+        <v>119.9687660939196</v>
       </c>
       <c r="C108">
         <v>6</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>12.03179602441558</v>
+        <v>11.99687660939196</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2845,16 +2842,16 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>119.9687660939196</v>
+        <v>414.4738566204022</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E109">
-        <v>11.99687660939196</v>
+        <v>11.84211018915435</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2862,16 +2859,16 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>446.1070966311933</v>
+        <v>11.70873157727273</v>
       </c>
       <c r="C110">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>11.73966043766298</v>
+        <v>11.70873157727273</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2879,16 +2876,16 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>11.70873157727273</v>
+        <v>299.3527395932873</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E111">
-        <v>11.70873157727273</v>
+        <v>11.51356690743413</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2896,16 +2893,16 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>299.3527395932873</v>
+        <v>160.9413121874221</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>11.51356690743413</v>
+        <v>11.49580801338729</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2913,16 +2910,16 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>160.9413121874221</v>
+        <v>446.0093587000176</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D113">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E113">
-        <v>11.49580801338729</v>
+        <v>11.43613740256455</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2930,16 +2927,16 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>413.7706370609498</v>
+        <v>338.552414943203</v>
       </c>
       <c r="C114">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E114">
-        <v>11.49362880724861</v>
+        <v>11.28508049810677</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2947,16 +2944,16 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>446.0093587000176</v>
+        <v>122.2836112593073</v>
       </c>
       <c r="C115">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>11.43613740256455</v>
+        <v>11.1166919326643</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2964,16 +2961,16 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>122.2836112593073</v>
+        <v>663.1019875541128</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E116">
-        <v>11.1166919326643</v>
+        <v>11.05169979256855</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3015,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>745.3767240881891</v>
+        <v>65.57205131799083</v>
       </c>
       <c r="C119">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E119">
-        <v>10.96142241306161</v>
+        <v>10.92867521966514</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3032,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>65.57205131799083</v>
+        <v>248.8457999357476</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E120">
-        <v>10.92867521966514</v>
+        <v>10.81938260590207</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3049,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>544.4395083700805</v>
+        <v>670.0355640060478</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D121">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E121">
-        <v>10.88879016740161</v>
+        <v>10.807025225904</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3066,16 +3063,16 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>248.8457999357476</v>
+        <v>386.9296362014201</v>
       </c>
       <c r="C122">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D122">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E122">
-        <v>10.81938260590207</v>
+        <v>10.74804545003945</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3083,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>670.0355640060478</v>
+        <v>171.1439216761988</v>
       </c>
       <c r="C123">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D123">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>10.807025225904</v>
+        <v>10.69649510476243</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3100,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>386.9296362014201</v>
+        <v>341.2019318049489</v>
       </c>
       <c r="C124">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D124">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E124">
-        <v>10.74804545003945</v>
+        <v>10.66256036890465</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3117,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>171.1439216761988</v>
+        <v>500.4795327452176</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E125">
-        <v>10.69649510476243</v>
+        <v>10.64850069670676</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3151,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>574.4938653644724</v>
+        <v>430.3367238552993</v>
       </c>
       <c r="C127">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D127">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E127">
-        <v>10.44534300662677</v>
+        <v>10.4960176550073</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3168,38 +3165,38 @@
         <v>128</v>
       </c>
       <c r="B128">
+        <v>574.4938653644724</v>
+      </c>
+      <c r="C128">
+        <v>60</v>
+      </c>
+      <c r="D128">
+        <v>55</v>
+      </c>
+      <c r="E128">
+        <v>10.44534300662677</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
         <v>62.52624616109101</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <v>10</v>
       </c>
-      <c r="D128">
+      <c r="D129">
         <v>6</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>10.4210410268485</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>136829091</v>
-      </c>
-      <c r="B129">
-        <v>884.7254398522483</v>
-      </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-      <c r="D129">
-        <v>85</v>
-      </c>
-      <c r="E129">
-        <v>10.40853458649704</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>135.1450789942502</v>
@@ -3216,228 +3213,228 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>592.4072907164747</v>
+        <v>72.21020994949357</v>
       </c>
       <c r="C131">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>10.39311036344692</v>
+        <v>10.31574427849908</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>72.21020994949357</v>
+        <v>154.5175965275206</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D132">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>10.31574427849908</v>
+        <v>10.30117310183471</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>154.5175965275206</v>
+        <v>473.2698476408538</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E133">
-        <v>10.30117310183471</v>
+        <v>10.28847494871421</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>473.2698476408538</v>
+        <v>226.0448302846386</v>
       </c>
       <c r="C134">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D134">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E134">
-        <v>10.28847494871421</v>
+        <v>10.27476501293812</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>226.0448302846386</v>
+        <v>152.3224936340227</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E135">
-        <v>10.27476501293812</v>
+        <v>10.15483290893484</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>152.3224936340227</v>
+        <v>111.4724814968646</v>
       </c>
       <c r="C136">
         <v>5</v>
       </c>
       <c r="D136">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>10.15483290893484</v>
+        <v>10.13386195426042</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>111.4724814968646</v>
+        <v>433.1591048856447</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D137">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E137">
-        <v>10.13386195426042</v>
+        <v>10.07346755548011</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>384.0427008278239</v>
+        <v>479.6828075176792</v>
       </c>
       <c r="C138">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D138">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E138">
-        <v>10.1063868638901</v>
+        <v>9.993391823284984</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>433.1591048856447</v>
+        <v>19.88500473376623</v>
       </c>
       <c r="C139">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>10.07346755548011</v>
+        <v>9.942502366883115</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>479.6828075176792</v>
+        <v>654.4094261293625</v>
       </c>
       <c r="C140">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D140">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E140">
-        <v>9.993391823284984</v>
+        <v>9.915294335293371</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>19.88500473376623</v>
+        <v>276.2926137554614</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>9.942502366883115</v>
+        <v>9.867593348409335</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>654.4094261293625</v>
+        <v>345.1861162991437</v>
       </c>
       <c r="C142">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D142">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E142">
-        <v>9.915294335293371</v>
+        <v>9.86246046568982</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>345.1861162991437</v>
+        <v>313.5982631842695</v>
       </c>
       <c r="C143">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D143">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E143">
-        <v>9.86246046568982</v>
+        <v>9.799945724508422</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>397.9870172088537</v>
@@ -3454,7 +3451,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>620.1323117074035</v>
@@ -3471,41 +3468,41 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>192.9367507042691</v>
+        <v>416.0307662247822</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E146">
-        <v>9.646837535213457</v>
+        <v>9.67513409825075</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>376.1829483697081</v>
+        <v>192.9367507042691</v>
       </c>
       <c r="C147">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D147">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E147">
-        <v>9.645716624864312</v>
+        <v>9.646837535213457</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>105.8377650075404</v>
@@ -3522,415 +3519,415 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>398.348513042964</v>
+        <v>18.8594783</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>9.484488405784859</v>
+        <v>9.42973915</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>18.8594783</v>
+        <v>272.4188089573749</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E150">
-        <v>9.42973915</v>
+        <v>9.393752033012928</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>480.2207326349937</v>
+        <v>299.8456471804607</v>
       </c>
       <c r="C151">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D151">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E151">
-        <v>9.416092796764582</v>
+        <v>9.370176474389396</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>272.4188089573749</v>
+        <v>409.5474031779401</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D152">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E152">
-        <v>9.393752033012928</v>
+        <v>9.307895526771365</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>299.8456471804607</v>
+        <v>18.47973698571429</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>9.370176474389396</v>
+        <v>9.239868492857143</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>18.47973698571429</v>
+        <v>512.6984098375248</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E154">
-        <v>9.239868492857143</v>
+        <v>9.155328747098656</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>608.6766322386661</v>
+        <v>173.225795770853</v>
       </c>
       <c r="C155">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D155">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E155">
-        <v>9.222373215737365</v>
+        <v>9.117147145834371</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>173.225795770853</v>
+        <v>541.918226923341</v>
       </c>
       <c r="C156">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D156">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E156">
-        <v>9.117147145834371</v>
+        <v>9.031970448722349</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>541.918226923341</v>
+        <v>295.1000412301208</v>
       </c>
       <c r="C157">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D157">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E157">
-        <v>9.031970448722349</v>
+        <v>8.942425491821842</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>545.7432696884914</v>
+        <v>98.25013776621091</v>
       </c>
       <c r="C158">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D158">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>8.946610978499859</v>
+        <v>8.931830706019174</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>295.1000412301208</v>
+        <v>53.56176377202796</v>
       </c>
       <c r="C159">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>8.942425491821842</v>
+        <v>8.926960628671326</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>98.25013776621091</v>
+        <v>70.89556014335122</v>
       </c>
       <c r="C160">
         <v>12</v>
       </c>
       <c r="D160">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E160">
-        <v>8.931830706019174</v>
+        <v>8.861945017918902</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>53.56176377202796</v>
+        <v>336.2506307552712</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E161">
-        <v>8.926960628671326</v>
+        <v>8.848700809349241</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>70.89556014335122</v>
+        <v>444.421467708464</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E162">
-        <v>8.861945017918902</v>
+        <v>8.714146425656157</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>336.2506307552712</v>
+        <v>276.8425794008268</v>
       </c>
       <c r="C163">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D163">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E163">
-        <v>8.848700809349241</v>
+        <v>8.651330606275836</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>535.1918402744009</v>
+        <v>310.6880766639823</v>
       </c>
       <c r="C164">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D164">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E164">
-        <v>8.773636725809851</v>
+        <v>8.630224351777287</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>276.8425794008268</v>
+        <v>77.12871326415868</v>
       </c>
       <c r="C165">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>8.651330606275836</v>
+        <v>8.569857029350963</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>310.6880766639823</v>
+        <v>357.142534752454</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D166">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E166">
-        <v>8.630224351777287</v>
+        <v>8.503393684582239</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>77.12871326415868</v>
+        <v>67.85741947007445</v>
       </c>
       <c r="C167">
         <v>5</v>
       </c>
       <c r="D167">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E167">
-        <v>8.569857029350963</v>
+        <v>8.482177433759306</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
-        <v>444.9313883586723</v>
+        <v>406.9459242430704</v>
       </c>
       <c r="C168">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D168">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E168">
-        <v>8.556372853051389</v>
+        <v>8.478040088397298</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
-        <v>67.85741947007445</v>
+        <v>109.867382732586</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E169">
-        <v>8.482177433759306</v>
+        <v>8.451337133275848</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>109.867382732586</v>
+        <v>301.0632154079668</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D170">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E170">
-        <v>8.451337133275848</v>
+        <v>8.362867094665745</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
-        <v>301.0632154079668</v>
+        <v>99.5792138869582</v>
       </c>
       <c r="C171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E171">
-        <v>8.362867094665745</v>
+        <v>8.298267823913184</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
-        <v>99.5792138869582</v>
+        <v>255.9724504775851</v>
       </c>
       <c r="C172">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D172">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E172">
-        <v>8.298267823913184</v>
+        <v>8.257175821857585</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>81.83635602182153</v>
@@ -3947,41 +3944,41 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>24.41950315</v>
+        <v>441.463523171349</v>
       </c>
       <c r="C174">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E174">
-        <v>8.139834383333334</v>
+        <v>8.175250429099057</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>300.6237109207228</v>
+        <v>24.41950315</v>
       </c>
       <c r="C175">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D175">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>8.124965160019535</v>
+        <v>8.139834383333334</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>56.44512097767233</v>
@@ -3998,7 +3995,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>112.474775066505</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>224.9425904465318</v>
@@ -4032,109 +4029,109 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>502.3934613552291</v>
+        <v>254.4400949038374</v>
       </c>
       <c r="C179">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D179">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E179">
-        <v>7.974499386590938</v>
+        <v>7.951252965744919</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>254.4400949038374</v>
+        <v>54.81775434622242</v>
       </c>
       <c r="C180">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D180">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>7.951252965744919</v>
+        <v>7.83110776374606</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181">
-        <v>31.48373492142857</v>
+        <v>61.57114481904762</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>7.870933730357144</v>
+        <v>7.696393102380952</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182">
-        <v>210.6417386775743</v>
+        <v>129.986772978124</v>
       </c>
       <c r="C182">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E182">
-        <v>7.801545876947196</v>
+        <v>7.646280763419059</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>61.57114481904762</v>
+        <v>129.8429507850287</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E183">
-        <v>7.696393102380952</v>
+        <v>7.637820634413451</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184">
-        <v>129.8429507850287</v>
+        <v>259.4000868682404</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D184">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E184">
-        <v>7.637820634413451</v>
+        <v>7.411431053378296</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>14.58815352575758</v>
@@ -4151,24 +4148,24 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>290.899488137949</v>
+        <v>297.9427401303526</v>
       </c>
       <c r="C186">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D186">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E186">
-        <v>7.272487203448724</v>
+        <v>7.266896100740308</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>14.33902345300752</v>
@@ -4185,7 +4182,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>28.62546877692308</v>
@@ -4202,7 +4199,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>14.22594093201282</v>
@@ -4219,248 +4216,248 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190">
-        <v>370.4815911923782</v>
+        <v>53.44335469683529</v>
       </c>
       <c r="C190">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D190">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>6.990218701742985</v>
+        <v>6.680419337104412</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191">
-        <v>73.82043651160703</v>
+        <v>26.41987705413534</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>6.710948773782457</v>
+        <v>6.604969263533835</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192">
-        <v>53.44335469683529</v>
+        <v>13.13858116857708</v>
       </c>
       <c r="C192">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>6.680419337104412</v>
+        <v>6.569290584288538</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193">
-        <v>26.41987705413534</v>
+        <v>97.41279751210068</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E193">
-        <v>6.604969263533835</v>
+        <v>6.494186500806712</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194">
-        <v>13.13858116857708</v>
+        <v>24.93462277121212</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>6.569290584288538</v>
+        <v>6.23365569280303</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195">
-        <v>97.41279751210068</v>
+        <v>62.19142867408071</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D195">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>6.494186500806712</v>
+        <v>6.219142867408071</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196">
-        <v>24.93462277121212</v>
+        <v>11.80336946898396</v>
       </c>
       <c r="C196">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>6.23365569280303</v>
+        <v>5.90168473449198</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197">
-        <v>62.19142867408071</v>
+        <v>74.77007213885283</v>
       </c>
       <c r="C197">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E197">
-        <v>6.219142867408071</v>
+        <v>5.751544010680987</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198">
-        <v>11.80336946898396</v>
+        <v>22.76299027562724</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>5.90168473449198</v>
+        <v>5.69074756890681</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>74.77007213885283</v>
+        <v>11.35757085168067</v>
       </c>
       <c r="C199">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D199">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>5.751544010680987</v>
+        <v>5.678785425840336</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200">
-        <v>22.76299027562724</v>
+        <v>39.53865091467672</v>
       </c>
       <c r="C200">
         <v>3</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>5.69074756890681</v>
+        <v>5.648378702096674</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201">
-        <v>11.35757085168067</v>
+        <v>37.75398670624912</v>
       </c>
       <c r="C201">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E201">
-        <v>5.678785425840336</v>
+        <v>5.393426672321303</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202">
-        <v>39.53865091467672</v>
+        <v>5.245456216666666</v>
       </c>
       <c r="C202">
         <v>3</v>
       </c>
       <c r="D202">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>5.648378702096674</v>
+        <v>5.245456216666666</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203">
-        <v>37.75398670624912</v>
+        <v>5.2056296</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D203">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>5.393426672321303</v>
+        <v>5.2056296</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204">
-        <v>5.245456216666666</v>
+        <v>4.328612985714286</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -4469,108 +4466,74 @@
         <v>1</v>
       </c>
       <c r="E204">
-        <v>5.245456216666666</v>
+        <v>4.328612985714286</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205">
-        <v>5.2056296</v>
+        <v>20.51762641038961</v>
       </c>
       <c r="C205">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>5.2056296</v>
+        <v>4.103525282077922</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206">
-        <v>4.328612985714286</v>
+        <v>14.28869821190476</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>4.328612985714286</v>
+        <v>3.572174552976191</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>20.51762641038961</v>
+        <v>14.02654545119617</v>
       </c>
       <c r="C207">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>4.103525282077922</v>
+        <v>3.506636362799043</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208">
-        <v>14.28869821190476</v>
+        <v>1.36376758</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>3.572174552976191</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209">
-        <v>14.02654545119617</v>
-      </c>
-      <c r="C209">
-        <v>2</v>
-      </c>
-      <c r="D209">
-        <v>4</v>
-      </c>
-      <c r="E209">
-        <v>3.506636362799043</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210">
-        <v>1.36376758</v>
-      </c>
-      <c r="C210">
-        <v>3</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
-      </c>
-      <c r="E210">
         <v>1.36376758</v>
       </c>
     </row>
